--- a/docs/ST1/ST1_12.11.2024_output.xlsx
+++ b/docs/ST1/ST1_12.11.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L86"/>
+  <dimension ref="A1:N86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731619133.4669242</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731619137.3951626</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619133.4669242.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619137.3951626.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>136.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>136.42</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.08000000000001251</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731619139.721192</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731619145.9452784</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619139.721192.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619145.9452784.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>136.46</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>135.7</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.7600000000000193</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.5599999999999999</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731619145.9612362</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731619147.071998</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619145.9612362.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619147.071998.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>135.7</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>135.74</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.04000000000002046</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731619147.0879269</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731619151.711942</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619147.0879269.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619151.711942.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>135.74</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>135.45</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.2900000000000205</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.21</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731619152.893217</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731619154.8971734</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619152.893217.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619154.8971734.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>135.3</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>135.18</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.1200000000000045</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731619154.9131036</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731619158.4359045</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619154.9131036.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731619158.4359045.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>135.18</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>135.31</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.1299999999999955</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.1</v>
       </c>
     </row>
@@ -851,95 +903,107 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731619158.4518347</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731619158.4518347.png</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731619158.4518347.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>135.31</v>
       </c>
-      <c r="J9" t="n">
-        <v>135.31</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>135.34</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731619161.34219</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731619164.455221</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619161.34219.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619164.455221.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>7035</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>7037</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>2</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731619164.4711783</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731619167.3100207</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619164.4711783.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619167.3100207.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>7037</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>7011.5</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>25.5</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731619173.644224</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731619177.6941073</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619173.644224.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619177.6941073.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>7005.5</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6996</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-9.5</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731619179.0349324</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731619180.9113047</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619179.0349324.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619180.9113047.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6995.5</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>7002.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>7</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731619181.5981321</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731619183.6557004</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619181.5981321.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731619183.6557004.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>7001</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>7008.5</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>7.5</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731619188.0885446</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731619190.612076</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619188.0885446.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619190.612076.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>492.45</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>491.65</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-0.8000000000000114</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731619190.6290314</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731619195.1444178</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619190.6290314.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619195.1444178.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>491.65</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>490.3</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>1.349999999999966</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731619203.6665509</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731619204.5011988</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619203.6665509.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619204.5011988.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>487</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>487.1</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>-0.1000000000000227</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731619204.5171843</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731619207.1102598</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619204.5171843.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619207.1102598.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>487.1</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>486.25</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.8500000000000227</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1363,51 +1475,57 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731619207.1272147</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731619207.8717813</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619207.1272147.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731619207.8717813.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>486.25</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>484.75</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>1.5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.31</v>
       </c>
     </row>
@@ -1415,95 +1533,107 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731619209.4917371</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731619209.4917371.png</t>
         </is>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731619209.4917371.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>484.8</v>
       </c>
-      <c r="J20" t="n">
-        <v>484.8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>484.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.3000000000000114</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731619212.2391067</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731619212.6927948</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619212.2391067.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619212.6927948.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>941.2</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>944.4</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>3.199999999999932</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1511,51 +1641,57 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731619214.1108646</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731619216.7480814</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619214.1108646.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619216.7480814.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>945.6</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>948.2</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>2.600000000000023</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731619217.7476735</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731619219.5748863</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619217.7476735.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619219.5748863.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>947.8</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>946.2</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731619219.5908742</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731619220.4340208</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619219.5908742.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619220.4340208.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>946.2</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>944</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>2.200000000000045</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731619224.265441</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731619226.345484</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619224.265441.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619226.345484.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>939.4</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>937.2</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2.199999999999932</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731619233.171953</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731619236.472165</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619233.171953.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731619236.472165.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>935.4</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>935.4</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1771,95 +1931,107 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731619236.489097</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731619236.489097.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731619236.489097.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>935.4</v>
       </c>
-      <c r="J27" t="n">
-        <v>935.4</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>935.8</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0.3999999999999773</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731619237.608814</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731619240.516542</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619237.608814.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619240.516542.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>37.995</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>38.005</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1867,51 +2039,57 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731619242.8169398</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731619245.299037</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619242.8169398.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619245.299037.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>37.89</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>37.845</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.04500000000000171</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>0.12</v>
       </c>
     </row>
@@ -1919,51 +2097,57 @@
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731619247.7345798</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731619250.2669976</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619247.7345798.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619250.2669976.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>37.98</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>38.14</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.1600000000000037</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.42</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731619251.8631947</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731619253.291467</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619251.8631947.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619253.291467.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>38.13</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>38.15</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.01999999999999602</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731619253.308394</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731619254.1080778</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619253.308394.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619254.1080778.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>38.15</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>38.075</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.07499999999999574</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731619256.2412758</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731619260.882479</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619256.2412758.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619260.882479.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>38.17</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>38.045</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>-0.125</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>-0.33</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731619260.8994334</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731619262.7037258</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619260.8994334.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731619262.7037258.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>38.045</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>38.085</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -2179,95 +2387,107 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731619262.7196558</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731619262.7196558.png</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731619262.7196558.png</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>38.085</v>
       </c>
-      <c r="J35" t="n">
-        <v>38.085</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>38.065</v>
+      </c>
+      <c r="M35" t="n">
+        <v>-0.02000000000000313</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731619268.4929202</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731619270.874325</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619268.4929202.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619270.874325.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1244.6</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1243.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.06</v>
       </c>
     </row>
@@ -2275,51 +2495,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731619272.5167816</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731619272.9078138</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619272.5167816.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619272.9078138.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1243.6</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1242</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>1.599999999999909</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -2327,51 +2553,57 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731619273.8904254</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731619275.0640886</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619273.8904254.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619275.0640886.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1243.4</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>1240.4</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>3</v>
       </c>
-      <c r="L38" t="n">
+      <c r="N38" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -2379,51 +2611,57 @@
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731619277.8942728</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731619279.271566</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619277.8942728.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619279.271566.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>1242.8</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>1242</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>-0.7999999999999545</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731619279.288526</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731619280.1608407</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619279.288526.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619280.1608407.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>1242</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>1235</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>7</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.5599999999999999</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731619284.9275992</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731619286.6259916</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619284.9275992.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731619286.6259916.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>1235</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>1234.8</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2000000000000455</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -2535,95 +2785,107 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731619286.6429462</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731619286.6429462.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731619286.6429462.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>1234.8</v>
       </c>
-      <c r="J42" t="n">
-        <v>1234.8</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>1240.2</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5.400000000000091</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731619289.510357</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731619291.4273767</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619289.510357.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619291.4273767.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>81.02</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>81.16</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>-0.1400000000000006</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -2631,51 +2893,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731619291.444331</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731619294.3848164</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619291.444331.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619294.3848164.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>81.16</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.06000000000000227</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -2683,51 +2951,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731619294.4017444</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731619296.463449</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619294.4017444.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619296.463449.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>81.09999999999999</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>80.97</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1299999999999955</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2735,51 +3009,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731619299.6917446</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731619301.8572495</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619299.6917446.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619301.8572495.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>80.90000000000001</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>80.79000000000001</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.1099999999999994</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -2787,51 +3067,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731619301.873236</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731619303.2411969</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619301.873236.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619303.2411969.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>80.79000000000001</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>80.8</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.009999999999990905</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2839,51 +3125,57 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731619303.258151</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731619304.9907925</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619303.258151.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619304.9907925.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>80.8</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>80.73</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -2891,51 +3183,57 @@
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731619305.007749</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731619305.575905</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619305.007749.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619305.575905.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>80.73</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>80.33</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.4000000000000057</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731619307.3973603</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731619308.58087</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619307.3973603.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619308.58087.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>80.5</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>80.51000000000001</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.01000000000000512</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731619308.5968313</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731619310.291138</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619308.5968313.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731619310.291138.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>80.51000000000001</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>80.51000000000001</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3047,95 +3357,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731619310.308095</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731619310.308095.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731619310.308095.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>80.51000000000001</v>
       </c>
-      <c r="J52" t="n">
-        <v>80.51000000000001</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>80.95999999999999</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-0.4499999999999886</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.5599999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731619325.7697864</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731619327.2486417</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619325.7697864.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619327.2486417.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>14.484</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>14.474</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>-0.009999999999999787</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -3143,51 +3465,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731619327.2656279</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731619329.109294</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619327.2656279.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619329.109294.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>14.474</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>14.431</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.04300000000000104</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3195,51 +3523,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731619329.1252515</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731619330.5291326</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619329.1252515.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619330.5291326.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>14.431</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>14.43</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>-0.0009999999999994458</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>-0.01</v>
       </c>
     </row>
@@ -3247,51 +3581,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731619330.546087</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731619330.7738614</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619330.546087.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619330.7738614.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>14.43</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>14.389</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.04100000000000037</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>0.28</v>
       </c>
     </row>
@@ -3299,51 +3639,57 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731619332.6949759</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731619333.1941934</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619332.6949759.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619333.1941934.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>14.393</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>14.364</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.02899999999999991</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -3351,51 +3697,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731619333.2111561</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731619335.8031626</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619333.2111561.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619335.8031626.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>14.364</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>14.355</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>-0.009000000000000341</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -3403,51 +3755,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731619335.8200908</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731619337.675608</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619335.8200908.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619337.675608.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>14.355</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>14.345</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.009999999999999787</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -3455,51 +3813,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731619337.6915653</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731619338.3086755</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619337.6915653.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731619338.3086755.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>14.345</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>14.391</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.04599999999999937</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3507,51 +3871,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731619345.0976222</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731619347.3308196</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619345.0976222.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619347.3308196.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>106.86</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>106.88</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>-0.01999999999999602</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -3559,51 +3929,57 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731619347.9974253</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731619351.7249954</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619347.9974253.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619351.7249954.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>106.94</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>106.38</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L62" t="n">
+      <c r="N62" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -3611,51 +3987,57 @@
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731619352.7333567</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731619354.3495383</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619352.7333567.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619354.3495383.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>106.37</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>106.18</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.1899999999999977</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -3663,51 +4045,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731619354.3664925</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731619356.561248</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619354.3664925.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619356.561248.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>106.18</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>105.91</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.2700000000000102</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.25</v>
       </c>
     </row>
@@ -3715,51 +4103,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731619356.578203</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731619359.5672548</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619356.578203.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619359.5672548.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>105.91</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>105.99</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -3767,51 +4161,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731619359.584212</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731619361.1625798</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619359.584212.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619361.1625798.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>105.99</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>106</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.01000000000000512</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.01</v>
       </c>
     </row>
@@ -3819,51 +4219,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731619361.179535</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731619362.266184</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619361.179535.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619362.266184.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>106</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>105.85</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.1500000000000057</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -3871,51 +4277,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731619362.2831395</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731619364.342451</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619362.2831395.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731619364.342451.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>105.85</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>106.4</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.5500000000000114</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.52</v>
       </c>
     </row>
@@ -3923,51 +4335,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731619373.936754</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731619377.5783079</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731619373.936754.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731619377.5783079.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>349.79</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>349.18</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.6100000000000136</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -3975,51 +4393,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731619377.5953386</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731619379.3248177</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731619377.5953386.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/BSPB1731619379.3248177.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>349.18</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>348.62</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.5600000000000023</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -4027,95 +4451,107 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731619384.38313</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731619384.38313.png</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731619384.38313.png</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>346.44</v>
       </c>
-      <c r="J71" t="n">
-        <v>346.44</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>347.25</v>
+      </c>
+      <c r="M71" t="n">
+        <v>-0.8100000000000023</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-0.23</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731619390.5748165</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>1731619392.0124116</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619390.5748165.png</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619392.0124116.png</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="I72" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>2796.2</v>
       </c>
-      <c r="J72" t="n">
+      <c r="L72" t="n">
         <v>2794.1</v>
       </c>
-      <c r="K72" t="n">
+      <c r="M72" t="n">
         <v>-2.099999999999909</v>
       </c>
-      <c r="L72" t="n">
+      <c r="N72" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -4123,51 +4559,57 @@
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731619392.029335</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731619392.5867972</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619392.029335.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619392.5867972.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>2794.1</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>2788.55</v>
       </c>
-      <c r="K73" t="n">
+      <c r="M73" t="n">
         <v>5.549999999999727</v>
       </c>
-      <c r="L73" t="n">
+      <c r="N73" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -4175,51 +4617,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731619394.7417374</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731619398.8806927</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619394.7417374.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619398.8806927.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>2790.45</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>2787.45</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>-3</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -4227,51 +4675,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731619399.6568675</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731619401.1233933</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619399.6568675.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619401.1233933.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>2785.65</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>2787.05</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>1.400000000000091</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -4279,51 +4733,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731619401.1403484</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731619402.4503639</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619401.1403484.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619402.4503639.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>2787.05</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>2784.55</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>2.5</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -4331,51 +4791,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731619402.4672906</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731619404.2231534</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619402.4672906.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619404.2231534.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>2784.55</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>2780.7</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>-3.850000000000364</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -4383,51 +4849,57 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731619404.2401087</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>1731619404.9131444</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619404.2401087.png</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619404.9131444.png</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="I78" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>2780.7</v>
       </c>
-      <c r="J78" t="n">
+      <c r="L78" t="n">
         <v>2774.45</v>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>6.25</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -4435,51 +4907,57 @@
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731619406.5361643</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731619408.0341148</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619406.5361643.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619408.0341148.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>2779</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>2777.05</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>1.949999999999818</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.06999999999999999</v>
       </c>
     </row>
@@ -4487,51 +4965,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731619408.0500715</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731619409.6307771</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619408.0500715.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619409.6307771.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>2777.05</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>2776.35</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>-0.7000000000002728</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4539,51 +5023,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731619409.6477036</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731619410.5800862</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619409.6477036.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619410.5800862.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>2776.35</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>2776.9</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.5500000000001819</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -4591,51 +5081,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731619410.5970416</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731619412.3410215</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619410.5970416.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/MXI1731619412.3410215.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>2776.9</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>2780.95</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>4.049999999999727</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4643,51 +5139,57 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731619432.1533935</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>1731619434.5844276</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619432.1533935.png</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619434.5844276.png</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>593.9</v>
       </c>
-      <c r="J83" t="n">
+      <c r="L83" t="n">
         <v>591.9</v>
       </c>
-      <c r="K83" t="n">
+      <c r="M83" t="n">
         <v>-2</v>
       </c>
-      <c r="L83" t="n">
+      <c r="N83" t="n">
         <v>-0.34</v>
       </c>
     </row>
@@ -4695,51 +5197,57 @@
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731619434.6013825</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731619436.3181186</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619434.6013825.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619436.3181186.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>591.9</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>590</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>1.899999999999977</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -4747,51 +5255,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731619436.337068</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731619437.7118318</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619436.337068.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/TATN1731619437.7118318.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>590</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>590.6</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.6000000000000227</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -4799,44 +5313,50 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>TATN</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731619437.7287867</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>./test_images/TATN1731619437.7287867.png</t>
         </is>
       </c>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
+          <t>./test_images/TATN1731619437.7287867.png</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>ST1</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>ST1</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>590.6</v>
       </c>
-      <c r="J86" t="n">
-        <v>590.6</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0</v>
-      </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>588.8</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.800000000000068</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0.3</v>
       </c>
     </row>
   </sheetData>
@@ -4919,19 +5439,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1300000000000097</v>
+        <v>-0.319999999999979</v>
       </c>
       <c r="C3" t="n">
         <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01300000000000097</v>
+        <v>-0.0319999999999979</v>
       </c>
       <c r="E3" t="n">
-        <v>0.17</v>
+        <v>-0.3899999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="4">
@@ -4963,19 +5483,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1249999999999929</v>
+        <v>0.1049999999999898</v>
       </c>
       <c r="C5" t="n">
         <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01562499999999911</v>
+        <v>0.01312499999999872</v>
       </c>
       <c r="E5" t="n">
-        <v>0.32</v>
+        <v>0.2699999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="6">
@@ -5007,19 +5527,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.79999999999995</v>
+        <v>17.20000000000005</v>
       </c>
       <c r="C7" t="n">
         <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.685714285714279</v>
+        <v>2.457142857142864</v>
       </c>
       <c r="E7" t="n">
-        <v>0.95</v>
+        <v>1.39</v>
       </c>
       <c r="F7" t="n">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="8">
@@ -5029,16 +5549,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.260000000000048</v>
+        <v>-1.230000000000047</v>
       </c>
       <c r="C8" t="n">
         <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1800000000000068</v>
+        <v>-0.1757142857142924</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.9299999999999999</v>
+        <v>-0.9099999999999999</v>
       </c>
       <c r="F8" t="n">
         <v>-0.13</v>
@@ -5051,16 +5571,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.600000000000023</v>
+        <v>9</v>
       </c>
       <c r="C9" t="n">
         <v>7</v>
       </c>
       <c r="D9" t="n">
-        <v>1.228571428571432</v>
+        <v>1.285714285714286</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8999999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F9" t="n">
         <v>0.13</v>
@@ -5073,19 +5593,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.099999999999909</v>
+        <v>1.39999999999992</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1833333333333182</v>
+        <v>0.2333333333333201</v>
       </c>
       <c r="E10" t="n">
-        <v>0.23</v>
+        <v>0.29</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="11">
@@ -5117,19 +5637,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5</v>
+        <v>2.300000000000068</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0.125</v>
+        <v>0.5750000000000171</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08000000000000004</v>
+        <v>0.38</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="13">
@@ -5139,19 +5659,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.05000000000001137</v>
+        <v>-0.8600000000000136</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.01666666666667046</v>
+        <v>-0.2866666666666712</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.009999999999999981</v>
+        <v>-0.24</v>
       </c>
       <c r="F13" t="n">
-        <v>-0</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="14">
